--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,79 +22,115 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>010363</t>
+  </si>
+  <si>
+    <t>288001</t>
+  </si>
+  <si>
+    <t>010963</t>
+  </si>
+  <si>
+    <t>519908</t>
+  </si>
+  <si>
+    <t>160642</t>
+  </si>
+  <si>
     <t>960004</t>
   </si>
   <si>
-    <t>288001</t>
-  </si>
-  <si>
-    <t>010363</t>
-  </si>
-  <si>
-    <t>010963</t>
-  </si>
-  <si>
-    <t>519908</t>
-  </si>
-  <si>
-    <t>160642</t>
+    <t>信达澳银匠心臻选两年持有期混合</t>
+  </si>
+  <si>
+    <t>华夏经典配置混合</t>
+  </si>
+  <si>
+    <t>信达澳银周期动力混合</t>
+  </si>
+  <si>
+    <t>华夏兴华混合A</t>
+  </si>
+  <si>
+    <t>鹏华增瑞灵活配置混合(LOF)</t>
   </si>
   <si>
     <t>华夏兴华混合H</t>
   </si>
   <si>
-    <t>华夏经典配置混合</t>
-  </si>
-  <si>
-    <t>信达澳银匠心臻选两年持有期混合</t>
-  </si>
-  <si>
-    <t>信达澳银周期动力混合</t>
-  </si>
-  <si>
-    <t>华夏兴华混合A</t>
-  </si>
-  <si>
-    <t>鹏华增瑞灵活配置混合(LOF)</t>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>11.54</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>93.02</t>
+  </si>
+  <si>
+    <t>61.55</t>
+  </si>
+  <si>
+    <t>94.47</t>
   </si>
   <si>
     <t>89.82</t>
   </si>
   <si>
-    <t>61.55</t>
-  </si>
-  <si>
-    <t>93.02</t>
-  </si>
-  <si>
-    <t>94.47</t>
-  </si>
-  <si>
     <t>79.78</t>
   </si>
   <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
     <t>3.01</t>
   </si>
   <si>
-    <t>4.56</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>4.73</t>
-  </si>
-  <si>
     <t>5.55</t>
+  </si>
+  <si>
+    <t>0.5528</t>
+  </si>
+  <si>
+    <t>0.5262</t>
+  </si>
+  <si>
+    <t>0.2488</t>
+  </si>
+  <si>
+    <t>0.2351</t>
+  </si>
+  <si>
+    <t>0.1754</t>
   </si>
 </sst>
 </file>
@@ -452,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,125 +510,164 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010363</t>
-  </si>
-  <si>
-    <t>288001</t>
-  </si>
-  <si>
-    <t>010963</t>
-  </si>
-  <si>
-    <t>519908</t>
-  </si>
-  <si>
-    <t>160642</t>
-  </si>
-  <si>
-    <t>960004</t>
-  </si>
-  <si>
-    <t>信达澳银匠心臻选两年持有期混合</t>
-  </si>
-  <si>
-    <t>华夏经典配置混合</t>
-  </si>
-  <si>
-    <t>信达澳银周期动力混合</t>
-  </si>
-  <si>
-    <t>华夏兴华混合A</t>
-  </si>
-  <si>
-    <t>鹏华增瑞灵活配置混合(LOF)</t>
-  </si>
-  <si>
-    <t>华夏兴华混合H</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>11.54</t>
-  </si>
-  <si>
-    <t>5.26</t>
-  </si>
-  <si>
-    <t>7.81</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>93.02</t>
-  </si>
-  <si>
-    <t>61.55</t>
-  </si>
-  <si>
-    <t>94.47</t>
-  </si>
-  <si>
-    <t>89.82</t>
-  </si>
-  <si>
-    <t>79.78</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>4.56</t>
-  </si>
-  <si>
-    <t>4.73</t>
-  </si>
-  <si>
-    <t>3.01</t>
-  </si>
-  <si>
-    <t>5.55</t>
-  </si>
-  <si>
-    <t>0.5528</t>
-  </si>
-  <si>
-    <t>0.5262</t>
-  </si>
-  <si>
-    <t>0.2488</t>
-  </si>
-  <si>
-    <t>0.2351</t>
-  </si>
-  <si>
-    <t>0.1754</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,190 +446,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1002,4 +1003,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1097,4 +1098,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,17 +1118,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1137,14 +1158,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1153,14 +1196,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1169,13 +1234,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,7 +1354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1364,17 +1365,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1384,14 +1405,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1400,14 +1443,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.57</v>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1416,14 +1481,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -1432,13 +1519,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1676,7 +1677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,17 +1688,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1707,14 +1728,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.4</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1723,14 +1766,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1739,14 +1804,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.57</v>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1755,14 +1842,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.06</v>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1771,13 +1880,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,274 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5528</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>61.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5262</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010963</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银周期动力混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2488</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2351</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1754</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -733,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -794,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.14</t>
+          <t>67.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5237</t>
+          <t>1.2325</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -822,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>011756</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>27.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>74.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3243</t>
+          <t>0.6533</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -860,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>011336</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>兴全汇吉一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>21.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>35.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1674</t>
+          <t>0.4138</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -898,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>009740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>62.45</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.2233</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -936,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001266</t>
+          <t>009591</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银招财灵活配置混合</t>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64.52</t>
+          <t>79.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.1550</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -974,34 +829,492 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>82.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
       </c>
       <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,7 +1349,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1076,26 +1389,254 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.73</t>
+          <t>18.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.21</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5674</t>
+          <t>1.2351</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,7 +1917,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1416,254 +1957,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>17.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>64.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2351</t>
+          <t>0.5674</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005650</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家量化同顺多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014212</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时研究优享混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014213</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时研究优享混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>60.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005651</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家量化同顺多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1698,7 +2011,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1738,26 +2051,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>66.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2325</t>
+          <t>0.5237</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1766,36 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011756</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.61</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6533</t>
+          <t>0.3243</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1804,36 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011336</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全汇吉一年持有期混合A</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>35.61</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4138</t>
+          <t>0.1674</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1842,36 +2155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009740</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>62.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2233</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1880,36 +2193,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009591</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>64.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1550</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1918,492 +2231,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000936</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合A</t>
+          <t>华夏兴华混合H</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1393</t>
-        </is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010217</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1055</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014201</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0927</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014212</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时研究优享混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0549</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006110</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富荣价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>014202</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011337</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴全汇吉一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>35.61</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011757</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时产业优选灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>74.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>82.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>014213</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时研究优享混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006109</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富荣价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2417,128 +2272,273 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.23</v>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.4</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.74</v>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>3.23</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>1.4</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -583,6 +600,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015752</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1322,7 +3257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1644,7 +3579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1890,7 +3825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1984,7 +3919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2266,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/000893-亚钾国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>10.36</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>3.23</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1.4</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.06</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -600,6 +617,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6705</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3721</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015752</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2517,7 +3768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3257,7 +4508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3579,7 +4830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3825,7 +5076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3919,7 +5170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4201,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
